--- a/ML/ML_research_paper_evaluation.xlsx
+++ b/ML/ML_research_paper_evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\pFolder\codes\ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F53118E2-6B0C-45D1-8A93-61259CCA060A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E5098C-AF2C-4307-97C6-EF398351ACB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E44C5B09-9525-D844-8037-5D271F8AB9CA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
   <si>
     <t>CSA</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Title</t>
   </si>
   <si>
-    <t>ab</t>
-  </si>
-  <si>
     <t>SICE</t>
   </si>
   <si>
@@ -256,6 +253,21 @@
   </si>
   <si>
     <t>Survey on distributed ML</t>
+  </si>
+  <si>
+    <t>Particle Swarm optimization for aprameter determination and feature selection of SVM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Novel enhanced Decision tree model for detecting chronic kidney disease </t>
+  </si>
+  <si>
+    <t>Enhancing SVM Classification of Breast Cancer Using Dual-Stage PSOOptimization</t>
+  </si>
+  <si>
+    <t>Ensemble Principal Component Analysis</t>
+  </si>
+  <si>
+    <t>An Advanced Decision Tree-Based Deep Neural Network in Nonlinear Data Classification</t>
   </si>
 </sst>
 </file>
@@ -610,7 +622,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -635,7 +647,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
@@ -649,25 +661,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
         <v>49</v>
-      </c>
-      <c r="G2" t="s">
-        <v>50</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -675,28 +687,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
         <v>43</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I3">
         <v>8</v>
       </c>
       <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
         <v>21</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -713,19 +725,19 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
         <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
       </c>
       <c r="I4">
         <v>9</v>
       </c>
       <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
         <v>69</v>
-      </c>
-      <c r="K4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -736,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -745,16 +757,16 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -762,16 +774,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -779,16 +791,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
         <v>54</v>
-      </c>
-      <c r="G7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -799,10 +811,10 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s">
         <v>57</v>
-      </c>
-      <c r="G8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -810,16 +822,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -827,19 +839,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" t="s">
         <v>59</v>
-      </c>
-      <c r="G10" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -850,7 +862,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -858,27 +870,33 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
         <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -886,19 +904,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
         <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -906,19 +924,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
         <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -926,19 +944,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
         <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" t="s">
         <v>62</v>
-      </c>
-      <c r="G16" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -946,10 +964,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
         <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -959,11 +977,17 @@
       <c r="A18">
         <v>17</v>
       </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -971,19 +995,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
         <v>36</v>
-      </c>
-      <c r="C19" t="s">
-        <v>37</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -991,10 +1015,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -1005,24 +1029,36 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" t="s">
         <v>64</v>
-      </c>
-      <c r="G21" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
       <c r="E22">
         <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1030,19 +1066,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1050,10 +1086,10 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1061,7 +1097,7 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1069,10 +1105,10 @@
         <v>25</v>
       </c>
       <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s">
         <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1080,10 +1116,10 @@
         <v>26</v>
       </c>
       <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s">
         <v>19</v>
-      </c>
-      <c r="G27" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1091,10 +1127,10 @@
         <v>27</v>
       </c>
       <c r="F28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" t="s">
         <v>67</v>
-      </c>
-      <c r="G28" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/ML/ML_research_paper_evaluation.xlsx
+++ b/ML/ML_research_paper_evaluation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\pFolder\codes\ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E5098C-AF2C-4307-97C6-EF398351ACB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946E327B-2BB0-48E9-9CD2-380F5641428C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E44C5B09-9525-D844-8037-5D271F8AB9CA}"/>
   </bookViews>
@@ -99,9 +99,6 @@
     <t xml:space="preserve">Improved Learning </t>
   </si>
   <si>
-    <t>EEG Based Detection model for evaluation and improved learning attention</t>
-  </si>
-  <si>
     <t>GNN</t>
   </si>
   <si>
@@ -268,6 +265,9 @@
   </si>
   <si>
     <t>An Advanced Decision Tree-Based Deep Neural Network in Nonlinear Data Classification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entropy based genetic feature engineering and multiclassifier fusion for anomaly </t>
   </si>
 </sst>
 </file>
@@ -622,7 +622,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -661,19 +661,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
         <v>48</v>
-      </c>
-      <c r="G2" t="s">
-        <v>49</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -687,19 +687,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
         <v>42</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I3">
         <v>8</v>
@@ -708,7 +708,7 @@
         <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -734,10 +734,10 @@
         <v>9</v>
       </c>
       <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
         <v>68</v>
-      </c>
-      <c r="K4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -748,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -757,16 +757,16 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -774,16 +774,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -791,16 +791,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
         <v>53</v>
-      </c>
-      <c r="G7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -811,10 +811,10 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
         <v>56</v>
-      </c>
-      <c r="G8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -822,16 +822,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -839,19 +839,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" t="s">
         <v>58</v>
-      </c>
-      <c r="G10" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -862,7 +862,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -870,7 +870,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -890,13 +890,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -904,19 +904,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
         <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -924,19 +924,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
         <v>46</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -944,19 +944,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
         <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" t="s">
         <v>61</v>
-      </c>
-      <c r="G16" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -964,10 +964,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
         <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -978,16 +978,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -995,10 +995,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
         <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -1015,10 +1015,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -1029,16 +1029,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" t="s">
         <v>63</v>
-      </c>
-      <c r="G21" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1049,16 +1049,16 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1066,19 +1066,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1086,10 +1086,10 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1097,7 +1097,7 @@
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1127,10 +1127,10 @@
         <v>27</v>
       </c>
       <c r="F28" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" t="s">
         <v>66</v>
-      </c>
-      <c r="G28" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
